--- a/app/data/static/samples/inputs/by_department/mozzarella/План по варкам моцарелла 1 все.xlsx
+++ b/app/data/static/samples/inputs/by_department/mozzarella/План по варкам моцарелла 1 все.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levkina\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenijkadaner/Yandex.Disk.localized/master/code/git/2020.10-umalat/umalat/app/data/static/samples/inputs/by_department/mozzarella/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FDD460-CD81-A04E-899C-6697C6A0E2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="файл остатки" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,18 @@
   <definedNames>
     <definedName name="Water_SKU">'Вода SKU'!$A$1:$A$100</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1123,7 +1135,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -1360,18 +1372,18 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1379,7 +1391,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
     <dxf>
@@ -2013,19 +2025,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK9"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="9.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1025" width="9.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:126" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:126" x14ac:dyDescent="0.2">
       <c r="B1" s="2">
         <v>0</v>
       </c>
@@ -2402,22 +2414,22 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:126" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:126" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:126" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:126" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -2797,7 +2809,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:126" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>126</v>
       </c>
@@ -3177,7 +3189,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="7" spans="1:126" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>252</v>
       </c>
@@ -3533,7 +3545,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:126" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>253</v>
       </c>
@@ -3913,7 +3925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:126" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>254</v>
       </c>
@@ -4304,20 +4316,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AMK48"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.7265625" style="1" customWidth="1"/>
-    <col min="2" max="1025" width="8.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" style="1" customWidth="1"/>
+    <col min="2" max="1025" width="8.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
         <v>325</v>
       </c>
@@ -4328,7 +4340,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
         <v>349</v>
       </c>
@@ -4339,7 +4351,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
         <v>350</v>
       </c>
@@ -4350,7 +4362,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
         <v>122</v>
       </c>
@@ -4361,7 +4373,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>121</v>
       </c>
@@ -4372,7 +4384,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
         <v>351</v>
       </c>
@@ -4383,7 +4395,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
         <v>352</v>
       </c>
@@ -4394,7 +4406,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
         <v>82</v>
       </c>
@@ -4405,7 +4417,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
         <v>83</v>
       </c>
@@ -4416,7 +4428,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>85</v>
       </c>
@@ -4427,7 +4439,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
         <v>73</v>
       </c>
@@ -4438,7 +4450,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
         <v>79</v>
       </c>
@@ -4449,7 +4461,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
         <v>354</v>
       </c>
@@ -4460,7 +4472,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
         <v>84</v>
       </c>
@@ -4471,7 +4483,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="35" t="s">
         <v>75</v>
       </c>
@@ -4482,7 +4494,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="35" t="s">
         <v>76</v>
       </c>
@@ -4493,7 +4505,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="35" t="s">
         <v>77</v>
       </c>
@@ -4504,7 +4516,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="35" t="s">
         <v>81</v>
       </c>
@@ -4515,7 +4527,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="35" t="s">
         <v>86</v>
       </c>
@@ -4526,7 +4538,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="35" t="s">
         <v>355</v>
       </c>
@@ -4537,7 +4549,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="35" t="s">
         <v>356</v>
       </c>
@@ -4548,7 +4560,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="35" t="s">
         <v>78</v>
       </c>
@@ -4559,7 +4571,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="35" t="s">
         <v>74</v>
       </c>
@@ -4570,7 +4582,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="35" t="s">
         <v>357</v>
       </c>
@@ -4581,7 +4593,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="35" t="s">
         <v>358</v>
       </c>
@@ -4592,7 +4604,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="35" t="s">
         <v>80</v>
       </c>
@@ -4603,7 +4615,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="35" t="s">
         <v>88</v>
       </c>
@@ -4614,7 +4626,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="35" t="s">
         <v>90</v>
       </c>
@@ -4625,7 +4637,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="35" t="s">
         <v>89</v>
       </c>
@@ -4636,7 +4648,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="35" t="s">
         <v>87</v>
       </c>
@@ -4647,7 +4659,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="35" t="s">
         <v>91</v>
       </c>
@@ -4658,7 +4670,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="35" t="s">
         <v>92</v>
       </c>
@@ -4669,7 +4681,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="35" t="s">
         <v>359</v>
       </c>
@@ -4680,7 +4692,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="35" t="s">
         <v>360</v>
       </c>
@@ -4691,7 +4703,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="35" t="s">
         <v>10</v>
       </c>
@@ -4702,7 +4714,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="35" t="s">
         <v>11</v>
       </c>
@@ -4713,7 +4725,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="35" t="s">
         <v>8</v>
       </c>
@@ -4724,7 +4736,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="35" t="s">
         <v>12</v>
       </c>
@@ -4735,7 +4747,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="35" t="s">
         <v>9</v>
       </c>
@@ -4746,7 +4758,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="35" t="s">
         <v>16</v>
       </c>
@@ -4757,7 +4769,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="35" t="s">
         <v>18</v>
       </c>
@@ -4768,7 +4780,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="35" t="s">
         <v>7</v>
       </c>
@@ -4779,7 +4791,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="35" t="s">
         <v>20</v>
       </c>
@@ -4790,7 +4802,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="35" t="s">
         <v>19</v>
       </c>
@@ -4801,7 +4813,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="35" t="s">
         <v>17</v>
       </c>
@@ -4812,7 +4824,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="35" t="s">
         <v>14</v>
       </c>
@@ -4823,7 +4835,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="35" t="s">
         <v>13</v>
       </c>
@@ -4834,7 +4846,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="35" t="s">
         <v>361</v>
       </c>
@@ -4852,50 +4864,50 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AMK7"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="69.81640625" style="1" customWidth="1"/>
-    <col min="2" max="1025" width="8.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="69.83203125" style="1" customWidth="1"/>
+    <col min="2" max="1025" width="8.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="41" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
         <v>268</v>
       </c>
@@ -4907,7 +4919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK72"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -4915,25 +4927,25 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="62.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" style="1" customWidth="1"/>
-    <col min="6" max="8" width="10.26953125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.08984375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="9.08984375" style="4" customWidth="1"/>
-    <col min="14" max="17" width="9.08984375" style="1" customWidth="1"/>
-    <col min="18" max="23" width="9.08984375" style="1" hidden="1" customWidth="1"/>
-    <col min="24" max="1025" width="9.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="62.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="1" customWidth="1"/>
+    <col min="6" max="8" width="10.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" style="4" customWidth="1"/>
+    <col min="14" max="17" width="9.1640625" style="1" customWidth="1"/>
+    <col min="18" max="23" width="9.1640625" style="1" hidden="1" customWidth="1"/>
+    <col min="24" max="1025" width="9.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>255</v>
       </c>
@@ -4978,7 +4990,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="44" t="s">
         <v>268</v>
       </c>
@@ -5030,9 +5042,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="45"/>
-      <c r="B3" s="43" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="43"/>
+      <c r="B3" s="48" t="s">
         <v>272</v>
       </c>
       <c r="C3" s="27" t="s">
@@ -5060,11 +5072,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="45" t="s">
         <v>275</v>
       </c>
       <c r="C4" s="28" t="s">
@@ -5109,7 +5121,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="47"/>
       <c r="C5" s="28" t="s">
@@ -5137,9 +5149,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
-      <c r="B6" s="45"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="28" t="s">
         <v>278</v>
       </c>
@@ -5165,9 +5177,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="47"/>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="46" t="s">
         <v>279</v>
       </c>
       <c r="C7" s="29" t="s">
@@ -5195,9 +5207,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="29" t="s">
         <v>273</v>
       </c>
@@ -5223,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="44" t="s">
         <v>280</v>
       </c>
@@ -5272,9 +5284,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="48" t="s">
         <v>272</v>
       </c>
       <c r="C12" s="27" t="s">
@@ -5302,7 +5314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="47"/>
       <c r="C13" s="27" t="s">
@@ -5330,7 +5342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="47"/>
       <c r="C14" s="27" t="s">
@@ -5358,7 +5370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="47"/>
       <c r="B15" s="47"/>
       <c r="C15" s="27" t="s">
@@ -5386,7 +5398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="47"/>
       <c r="B16" s="47"/>
       <c r="C16" s="27" t="s">
@@ -5414,7 +5426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="47"/>
       <c r="B17" s="47"/>
       <c r="C17" s="27" t="s">
@@ -5442,7 +5454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
       <c r="B18" s="47"/>
       <c r="C18" s="27" t="s">
@@ -5470,9 +5482,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="27" t="s">
         <v>283</v>
       </c>
@@ -5498,7 +5510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="44" t="s">
         <v>285</v>
       </c>
@@ -5547,7 +5559,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="47"/>
       <c r="B23" s="47"/>
       <c r="C23" s="30" t="s">
@@ -5575,7 +5587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="47"/>
       <c r="B24" s="47"/>
       <c r="C24" s="31" t="s">
@@ -5603,9 +5615,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="47"/>
-      <c r="B25" s="45"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="31" t="s">
         <v>288</v>
       </c>
@@ -5631,7 +5643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="47"/>
       <c r="B26" s="42" t="s">
         <v>269</v>
@@ -5661,7 +5673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="47"/>
       <c r="B27" s="47"/>
       <c r="C27" s="25" t="s">
@@ -5689,7 +5701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="47"/>
       <c r="B28" s="47"/>
       <c r="C28" s="25" t="s">
@@ -5717,7 +5729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="47"/>
       <c r="B29" s="47"/>
       <c r="C29" s="25" t="s">
@@ -5745,7 +5757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="47"/>
       <c r="B30" s="47"/>
       <c r="C30" s="25" t="s">
@@ -5773,7 +5785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="47"/>
       <c r="B31" s="47"/>
       <c r="C31" s="25" t="s">
@@ -5801,7 +5813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="47"/>
       <c r="B32" s="47"/>
       <c r="C32" s="25" t="s">
@@ -5829,7 +5841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="47"/>
       <c r="B33" s="47"/>
       <c r="C33" s="25" t="s">
@@ -5857,7 +5869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="47"/>
       <c r="B34" s="47"/>
       <c r="C34" s="25" t="s">
@@ -5885,7 +5897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="47"/>
       <c r="B35" s="47"/>
       <c r="C35" s="25" t="s">
@@ -5913,9 +5925,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="47"/>
-      <c r="B36" s="45"/>
+      <c r="B36" s="43"/>
       <c r="C36" s="25" t="s">
         <v>270</v>
       </c>
@@ -5941,9 +5953,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="47"/>
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="48" t="s">
         <v>272</v>
       </c>
       <c r="C37" s="27" t="s">
@@ -5971,7 +5983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="47"/>
       <c r="B38" s="47"/>
       <c r="C38" s="27" t="s">
@@ -5999,7 +6011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="47"/>
       <c r="B39" s="47"/>
       <c r="C39" s="27" t="s">
@@ -6027,7 +6039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="47"/>
       <c r="B40" s="47"/>
       <c r="C40" s="27" t="s">
@@ -6055,7 +6067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="47"/>
       <c r="B41" s="47"/>
       <c r="C41" s="27" t="s">
@@ -6083,7 +6095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="47"/>
       <c r="B42" s="47"/>
       <c r="C42" s="27" t="s">
@@ -6111,9 +6123,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A43" s="45"/>
-      <c r="B43" s="45"/>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
       <c r="C43" s="27" t="s">
         <v>273</v>
       </c>
@@ -6139,11 +6151,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="44" t="s">
         <v>292</v>
       </c>
-      <c r="B46" s="46" t="s">
+      <c r="B46" s="45" t="s">
         <v>275</v>
       </c>
       <c r="C46" s="28" t="s">
@@ -6188,7 +6200,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="47"/>
       <c r="B47" s="47"/>
       <c r="C47" s="28" t="s">
@@ -6216,7 +6228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="47"/>
       <c r="B48" s="47"/>
       <c r="C48" s="28" t="s">
@@ -6244,7 +6256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="47"/>
       <c r="B49" s="47"/>
       <c r="C49" s="28" t="s">
@@ -6272,7 +6284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="47"/>
       <c r="B50" s="47"/>
       <c r="C50" s="28" t="s">
@@ -6300,7 +6312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="47"/>
       <c r="B51" s="47"/>
       <c r="C51" s="28" t="s">
@@ -6328,7 +6340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="47"/>
       <c r="B52" s="47"/>
       <c r="C52" s="28" t="s">
@@ -6356,7 +6368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="47"/>
       <c r="B53" s="47"/>
       <c r="C53" s="28" t="s">
@@ -6384,9 +6396,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="47"/>
-      <c r="B54" s="45"/>
+      <c r="B54" s="43"/>
       <c r="C54" s="28" t="s">
         <v>276</v>
       </c>
@@ -6412,9 +6424,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="47"/>
-      <c r="B55" s="48" t="s">
+      <c r="B55" s="46" t="s">
         <v>279</v>
       </c>
       <c r="C55" s="29" t="s">
@@ -6442,7 +6454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="47"/>
       <c r="B56" s="47"/>
       <c r="C56" s="29" t="s">
@@ -6470,7 +6482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="47"/>
       <c r="B57" s="47"/>
       <c r="C57" s="29" t="s">
@@ -6498,7 +6510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="47"/>
       <c r="B58" s="47"/>
       <c r="C58" s="29" t="s">
@@ -6526,7 +6538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="47"/>
       <c r="B59" s="47"/>
       <c r="C59" s="29" t="s">
@@ -6554,7 +6566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="47"/>
       <c r="B60" s="47"/>
       <c r="C60" s="29" t="s">
@@ -6582,9 +6594,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A61" s="45"/>
-      <c r="B61" s="45"/>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
       <c r="C61" s="29" t="s">
         <v>276</v>
       </c>
@@ -6610,7 +6622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" s="44" t="s">
         <v>298</v>
       </c>
@@ -6658,9 +6670,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A65" s="45"/>
-      <c r="B65" s="45"/>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A65" s="43"/>
+      <c r="B65" s="43"/>
       <c r="C65" s="25" t="s">
         <v>301</v>
       </c>
@@ -6686,11 +6698,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" s="44" t="s">
         <v>298</v>
       </c>
-      <c r="B68" s="46" t="s">
+      <c r="B68" s="45" t="s">
         <v>275</v>
       </c>
       <c r="C68" s="28" t="s">
@@ -6735,9 +6747,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" s="47"/>
-      <c r="B69" s="45"/>
+      <c r="B69" s="43"/>
       <c r="C69" s="28" t="s">
         <v>273</v>
       </c>
@@ -6763,9 +6775,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" s="47"/>
-      <c r="B70" s="48" t="s">
+      <c r="B70" s="46" t="s">
         <v>279</v>
       </c>
       <c r="C70" s="29" t="s">
@@ -6793,7 +6805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" s="47"/>
       <c r="B71" s="47"/>
       <c r="C71" s="29" t="s">
@@ -6821,9 +6833,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A72" s="45"/>
-      <c r="B72" s="45"/>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A72" s="43"/>
+      <c r="B72" s="43"/>
       <c r="C72" s="29" t="s">
         <v>278</v>
       </c>
@@ -6851,27 +6863,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="A22:A43"/>
-    <mergeCell ref="B46:B54"/>
-    <mergeCell ref="B55:B61"/>
-    <mergeCell ref="A46:A61"/>
-    <mergeCell ref="B11"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B36"/>
     <mergeCell ref="B2"/>
     <mergeCell ref="B3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B11"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B36"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="A22:A43"/>
+    <mergeCell ref="B46:B54"/>
+    <mergeCell ref="B55:B61"/>
+    <mergeCell ref="A46:A61"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="A68:A72"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -6883,43 +6895,40 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="16" ySplit="1" topLeftCell="Q8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomRight" activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="10.36328125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.26953125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="43.1796875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" style="1" customWidth="1"/>
-    <col min="10" max="11" width="8.7265625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" style="11" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" style="12" customWidth="1"/>
-    <col min="14" max="14" width="8.7265625" style="13" customWidth="1"/>
-    <col min="15" max="15" width="1.81640625" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="5.54296875" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="5.453125" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="7" width="10.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="43.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="8.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="11" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" style="12" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" style="13" customWidth="1"/>
+    <col min="15" max="15" width="1.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="5.5" style="1" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="5" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="7.54296875" style="1" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="3.1796875" style="1" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="4.54296875" style="1" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="6.7265625" style="1" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="8.81640625" style="1" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="8.54296875" style="1" hidden="1" customWidth="1"/>
-    <col min="25" max="1025" width="8.54296875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="3.1640625" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="4.5" style="1" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="6.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="8.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="8.5" style="1" hidden="1" customWidth="1"/>
+    <col min="25" max="1025" width="8.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>303</v>
       </c>
@@ -6990,7 +6999,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34">
         <f ca="1">IF(O2="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(R2)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R2)))))</f>
         <v>1</v>
@@ -7069,7 +7078,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34">
         <f ca="1">IF(O3="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(R3)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R3)))))</f>
         <v>1</v>
@@ -7148,7 +7157,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="32">
         <f t="shared" ref="A4:A39" ca="1" si="1">IF(O4="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(R4)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R4)))))</f>
         <v>1</v>
@@ -7227,7 +7236,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="32">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
@@ -7306,7 +7315,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="32">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
@@ -7385,7 +7394,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="32">
         <f ca="1">IF(O7="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(R7)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R7)))))</f>
         <v>1</v>
@@ -7464,7 +7473,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="32">
         <f ca="1">IF(O8="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(R8)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R8)))))</f>
         <v>1</v>
@@ -7543,7 +7552,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="32">
         <f ca="1">IF(O9="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(R9)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R9)))))</f>
         <v>1</v>
@@ -7622,7 +7631,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -7700,7 +7709,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="32">
         <f t="shared" ca="1" si="1"/>
         <v>2</v>
@@ -7724,7 +7733,7 @@
         <v>323</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I11" s="32">
         <v>550</v>
@@ -7779,7 +7788,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="32">
         <f t="shared" ca="1" si="1"/>
         <v>2</v>
@@ -7858,7 +7867,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="32">
         <f t="shared" ca="1" si="1"/>
         <v>2</v>
@@ -7937,7 +7946,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="32">
         <f ca="1">IF(O14="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(R14)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R14)))))</f>
         <v>2</v>
@@ -8016,7 +8025,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="32">
         <f ca="1">IF(O15="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(R15)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R15)))))</f>
         <v>2</v>
@@ -8095,7 +8104,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="35" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -8173,7 +8182,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="32">
         <f t="shared" ca="1" si="1"/>
         <v>3</v>
@@ -8252,7 +8261,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="32">
         <f t="shared" ca="1" si="1"/>
         <v>3</v>
@@ -8331,7 +8340,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="35" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -8409,7 +8418,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="32">
         <f t="shared" ca="1" si="1"/>
         <v>4</v>
@@ -8488,7 +8497,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="35" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -8566,7 +8575,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="32">
         <f t="shared" ca="1" si="1"/>
         <v>5</v>
@@ -8645,7 +8654,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="34">
         <f ca="1">IF(O23="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(R23)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R23)))))</f>
         <v>5</v>
@@ -8724,7 +8733,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="34">
         <f t="shared" ref="A24" ca="1" si="11">IF(O24="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(R24)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R24)))))</f>
         <v>5</v>
@@ -8804,7 +8813,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="35" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -8882,7 +8891,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="34">
         <f t="shared" ca="1" si="1"/>
         <v>6</v>
@@ -8961,7 +8970,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="35" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -9039,7 +9048,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="32">
         <f ca="1">IF(O28="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(R28)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R28)))))</f>
         <v>7</v>
@@ -9118,7 +9127,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="34">
         <f ca="1">IF(O29="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(R29)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R29)))))</f>
         <v>7</v>
@@ -9197,7 +9206,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="34">
         <f t="shared" ca="1" si="1"/>
         <v>7</v>
@@ -9276,7 +9285,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="34">
         <f t="shared" ca="1" si="1"/>
         <v>7</v>
@@ -9355,7 +9364,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="34">
         <f t="shared" ca="1" si="1"/>
         <v>7</v>
@@ -9434,7 +9443,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="34">
         <f t="shared" ca="1" si="1"/>
         <v>7</v>
@@ -9513,7 +9522,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="34">
         <f ca="1">IF(O34="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(R34)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R34)))))</f>
         <v>7</v>
@@ -9592,7 +9601,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="35" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -9670,7 +9679,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="34">
         <f ca="1">IF(O36="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(R36)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R36)))))</f>
         <v>8</v>
@@ -9749,7 +9758,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="34">
         <f ca="1">IF(O37="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(R37)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R37)))))</f>
         <v>8</v>
@@ -9828,7 +9837,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="34">
         <f t="shared" ca="1" si="1"/>
         <v>8</v>
@@ -9907,7 +9916,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="35" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -9985,7 +9994,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J40" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -10036,7 +10045,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J41" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -10087,7 +10096,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J42" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -10138,7 +10147,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J43" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -10189,7 +10198,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J44" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -10240,7 +10249,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J45" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -10291,7 +10300,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J46" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -10342,7 +10351,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J47" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -10393,7 +10402,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J48" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -10444,7 +10453,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J49" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -10495,7 +10504,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J50" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -10546,7 +10555,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J51" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -10597,7 +10606,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J52" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -10648,7 +10657,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J53" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -10699,7 +10708,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J54" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -10750,7 +10759,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J55" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -10801,7 +10810,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J56" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -10852,7 +10861,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J57" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -10903,7 +10912,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J58" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -10954,7 +10963,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J59" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -11005,7 +11014,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J60" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -11056,7 +11065,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J61" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -11107,7 +11116,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J62" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -11158,7 +11167,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J63" s="11" t="str">
         <f t="shared" ref="J63:J94" ca="1" si="30">IF(M63="", IF(O63="","",X63+(INDIRECT("S" &amp; ROW() - 1) - S63)),IF(O63="", "", INDIRECT("S" &amp; ROW() - 1) - S63))</f>
         <v/>
@@ -11177,7 +11186,7 @@
         <v>0</v>
       </c>
       <c r="Q63" s="1">
-        <f t="shared" ref="Q63:Q94" ca="1" si="33">IF(O63 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(P63)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(P63)))), 0)</f>
+        <f t="shared" ref="Q63:Q70" ca="1" si="33">IF(O63 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(P63)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(P63)))), 0)</f>
         <v>0</v>
       </c>
       <c r="R63" s="1">
@@ -11209,7 +11218,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J64" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -11260,7 +11269,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J65" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -11311,7 +11320,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J66" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -11362,7 +11371,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J67" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -11413,7 +11422,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J68" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -11464,7 +11473,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J69" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -11515,7 +11524,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J70" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -11566,7 +11575,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J71" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -11617,7 +11626,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J72" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -11668,7 +11677,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J73" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -11719,7 +11728,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J74" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -11770,7 +11779,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J75" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -11821,7 +11830,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J76" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -11872,7 +11881,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J77" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -11923,7 +11932,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J78" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -11974,7 +11983,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J79" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -12025,7 +12034,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J80" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -12076,7 +12085,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J81" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -12127,7 +12136,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J82" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -12178,7 +12187,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J83" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -12229,7 +12238,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J84" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -12280,7 +12289,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J85" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -12331,7 +12340,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J86" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -12382,7 +12391,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J87" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -12433,7 +12442,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J88" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -12484,7 +12493,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J89" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -12535,7 +12544,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J90" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -12586,7 +12595,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J91" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -12637,7 +12646,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J92" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -12688,7 +12697,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J93" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -12739,7 +12748,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J94" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -12790,7 +12799,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J95" s="11" t="str">
         <f t="shared" ref="J95:J119" ca="1" si="41">IF(M95="", IF(O95="","",X95+(INDIRECT("S" &amp; ROW() - 1) - S95)),IF(O95="", "", INDIRECT("S" &amp; ROW() - 1) - S95))</f>
         <v/>
@@ -12801,11 +12810,11 @@
       </c>
       <c r="M95" s="20"/>
       <c r="N95" s="19" t="str">
-        <f t="shared" ref="N95:N126" ca="1" si="42">IF(M95="", IF(X95=0, "", X95), IF(V95 = "", "", IF(V95/U95 = 0, "", V95/U95)))</f>
+        <f t="shared" ref="N95:N119" ca="1" si="42">IF(M95="", IF(X95=0, "", X95), IF(V95 = "", "", IF(V95/U95 = 0, "", V95/U95)))</f>
         <v/>
       </c>
       <c r="P95" s="1">
-        <f t="shared" ref="P95:P126" si="43">IF(O95 = "-", -W95,I95)</f>
+        <f t="shared" ref="P95:P119" si="43">IF(O95 = "-", -W95,I95)</f>
         <v>0</v>
       </c>
       <c r="Q95" s="1">
@@ -12833,7 +12842,7 @@
         <v>0</v>
       </c>
       <c r="W95" s="1">
-        <f t="shared" ref="W95:W126" ca="1" si="48">IF(V95 = "", "", V95/U95)</f>
+        <f t="shared" ref="W95:W119" ca="1" si="48">IF(V95 = "", "", V95/U95)</f>
         <v>0</v>
       </c>
       <c r="X95" s="1" t="str">
@@ -12841,7 +12850,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J96" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -12892,7 +12901,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J97" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -12943,7 +12952,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J98" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -12994,7 +13003,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J99" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -13045,7 +13054,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J100" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -13096,7 +13105,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J101" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -13147,7 +13156,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J102" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -13198,7 +13207,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J103" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -13249,7 +13258,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J104" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -13300,7 +13309,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J105" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -13351,7 +13360,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J106" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -13402,7 +13411,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J107" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -13453,7 +13462,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J108" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -13504,7 +13513,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J109" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -13555,7 +13564,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J110" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -13606,7 +13615,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J111" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -13657,7 +13666,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J112" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -13708,7 +13717,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J113" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -13759,7 +13768,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J114" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -13810,7 +13819,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J115" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -13861,7 +13870,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J116" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -13912,7 +13921,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J117" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -13963,7 +13972,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J118" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -14014,7 +14023,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J119" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -14065,589 +14074,589 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K120" s="18" t="str">
         <f>IF(H120="", "", IF(H120="-","",VLOOKUP(H120, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="121" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K121" s="18" t="str">
         <f>IF(H121="", "", IF(H121="-","",VLOOKUP(H121, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="122" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K122" s="18" t="str">
         <f>IF(H122="", "", IF(H122="-","",VLOOKUP(H122, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="123" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K123" s="18" t="str">
         <f>IF(H123="", "", IF(H123="-","",VLOOKUP(H123, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="124" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K124" s="18" t="str">
         <f>IF(H124="", "", IF(H124="-","",VLOOKUP(H124, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="125" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K125" s="18" t="str">
         <f>IF(H125="", "", IF(H125="-","",VLOOKUP(H125, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="126" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K126" s="18" t="str">
         <f>IF(H126="", "", IF(H126="-","",VLOOKUP(H126, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="127" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K127" s="18" t="str">
         <f>IF(H127="", "", IF(H127="-","",VLOOKUP(H127, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="128" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K128" s="18" t="str">
         <f>IF(H128="", "", IF(H128="-","",VLOOKUP(H128, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="129" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K129" s="11" t="str">
         <f>IF(H129="", "", IF(H129="-","",VLOOKUP(H129, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="130" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K130" s="11" t="str">
         <f>IF(H130="", "", IF(H130="-","",VLOOKUP(H130, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="131" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K131" s="11" t="str">
         <f>IF(H131="", "", IF(H131="-","",VLOOKUP(H131, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="132" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K132" s="11" t="str">
         <f>IF(H132="", "", IF(H132="-","",VLOOKUP(H132, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="133" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K133" s="11" t="str">
         <f>IF(H133="", "", IF(H133="-","",VLOOKUP(H133, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="134" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K134" s="11" t="str">
         <f>IF(H134="", "", IF(H134="-","",VLOOKUP(H134, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="135" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K135" s="11" t="str">
         <f>IF(H135="", "", IF(H135="-","",VLOOKUP(H135, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="136" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K136" s="11" t="str">
         <f>IF(H136="", "", IF(H136="-","",VLOOKUP(H136, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="137" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K137" s="11" t="str">
         <f>IF(H137="", "", IF(H137="-","",VLOOKUP(H137, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="138" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K138" s="11" t="str">
         <f>IF(H138="", "", IF(H138="-","",VLOOKUP(H138, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="139" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K139" s="11" t="str">
         <f>IF(H139="", "", IF(H139="-","",VLOOKUP(H139, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="140" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K140" s="11" t="str">
         <f>IF(H140="", "", IF(H140="-","",VLOOKUP(H140, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="141" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K141" s="11" t="str">
         <f>IF(H141="", "", IF(H141="-","",VLOOKUP(H141, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="142" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K142" s="11" t="str">
         <f>IF(H142="", "", IF(H142="-","",VLOOKUP(H142, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="143" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K143" s="11" t="str">
         <f>IF(H143="", "", IF(H143="-","",VLOOKUP(H143, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="144" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K144" s="11" t="str">
         <f>IF(H144="", "", IF(H144="-","",VLOOKUP(H144, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="145" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K145" s="11" t="str">
         <f>IF(H145="", "", IF(H145="-","",VLOOKUP(H145, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="146" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K146" s="11" t="str">
         <f>IF(H146="", "", IF(H146="-","",VLOOKUP(H146, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="147" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K147" s="11" t="str">
         <f>IF(H147="", "", IF(H147="-","",VLOOKUP(H147, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="148" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K148" s="11" t="str">
         <f>IF(H148="", "", IF(H148="-","",VLOOKUP(H148, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="149" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K149" s="11" t="str">
         <f>IF(H149="", "", IF(H149="-","",VLOOKUP(H149, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="150" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K150" s="11" t="str">
         <f>IF(H150="", "", IF(H150="-","",VLOOKUP(H150, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="151" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K151" s="11" t="str">
         <f>IF(H151="", "", IF(H151="-","",VLOOKUP(H151, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="152" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K152" s="11" t="str">
         <f>IF(H152="", "", IF(H152="-","",VLOOKUP(H152, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="153" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K153" s="11" t="str">
         <f>IF(H153="", "", IF(H153="-","",VLOOKUP(H153, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="154" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K154" s="11" t="str">
         <f>IF(H154="", "", IF(H154="-","",VLOOKUP(H154, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="155" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K155" s="11" t="str">
         <f>IF(H155="", "", IF(H155="-","",VLOOKUP(H155, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="156" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K156" s="11" t="str">
         <f>IF(H156="", "", IF(H156="-","",VLOOKUP(H156, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="157" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K157" s="11" t="str">
         <f>IF(H157="", "", IF(H157="-","",VLOOKUP(H157, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="158" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K158" s="11" t="str">
         <f>IF(H158="", "", IF(H158="-","",VLOOKUP(H158, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="159" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K159" s="11" t="str">
         <f>IF(H159="", "", IF(H159="-","",VLOOKUP(H159, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="160" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K160" s="11" t="str">
         <f>IF(H160="", "", IF(H160="-","",VLOOKUP(H160, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="161" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K161" s="11" t="str">
         <f>IF(H161="", "", IF(H161="-","",VLOOKUP(H161, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="162" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K162" s="11" t="str">
         <f>IF(H162="", "", IF(H162="-","",VLOOKUP(H162, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="163" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K163" s="11" t="str">
         <f>IF(H163="", "", IF(H163="-","",VLOOKUP(H163, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="164" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K164" s="11" t="str">
         <f>IF(H164="", "", IF(H164="-","",VLOOKUP(H164, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="165" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K165" s="11" t="str">
         <f>IF(H165="", "", IF(H165="-","",VLOOKUP(H165, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="166" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K166" s="11" t="str">
         <f>IF(H166="", "", IF(H166="-","",VLOOKUP(H166, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="167" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K167" s="11" t="str">
         <f>IF(H167="", "", IF(H167="-","",VLOOKUP(H167, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="168" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K168" s="11" t="str">
         <f>IF(H168="", "", IF(H168="-","",VLOOKUP(H168, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="169" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K169" s="11" t="str">
         <f>IF(H169="", "", IF(H169="-","",VLOOKUP(H169, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="170" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K170" s="11" t="str">
         <f>IF(H170="", "", IF(H170="-","",VLOOKUP(H170, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="171" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K171" s="11" t="str">
         <f>IF(H171="", "", IF(H171="-","",VLOOKUP(H171, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="172" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K172" s="11" t="str">
         <f>IF(H172="", "", IF(H172="-","",VLOOKUP(H172, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="173" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K173" s="11" t="str">
         <f>IF(H173="", "", IF(H173="-","",VLOOKUP(H173, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="174" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K174" s="11" t="str">
         <f>IF(H174="", "", IF(H174="-","",VLOOKUP(H174, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="175" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K175" s="11" t="str">
         <f>IF(H175="", "", IF(H175="-","",VLOOKUP(H175, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="176" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K176" s="11" t="str">
         <f>IF(H176="", "", IF(H176="-","",VLOOKUP(H176, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="177" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K177" s="11" t="str">
         <f>IF(H177="", "", IF(H177="-","",VLOOKUP(H177, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="178" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K178" s="11" t="str">
         <f>IF(H178="", "", IF(H178="-","",VLOOKUP(H178, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="179" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K179" s="11" t="str">
         <f>IF(H179="", "", IF(H179="-","",VLOOKUP(H179, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="180" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K180" s="11" t="str">
         <f>IF(H180="", "", IF(H180="-","",VLOOKUP(H180, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="181" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K181" s="11" t="str">
         <f>IF(H181="", "", IF(H181="-","",VLOOKUP(H181, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="182" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K182" s="11" t="str">
         <f>IF(H182="", "", IF(H182="-","",VLOOKUP(H182, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="183" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K183" s="11" t="str">
         <f>IF(H183="", "", IF(H183="-","",VLOOKUP(H183, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K184" s="11" t="str">
         <f>IF(H184="", "", IF(H184="-","",VLOOKUP(H184, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="185" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K185" s="11" t="str">
         <f>IF(H185="", "", IF(H185="-","",VLOOKUP(H185, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="186" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K186" s="11" t="str">
         <f>IF(H186="", "", IF(H186="-","",VLOOKUP(H186, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="187" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K187" s="11" t="str">
         <f>IF(H187="", "", IF(H187="-","",VLOOKUP(H187, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="188" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K188" s="11" t="str">
         <f>IF(H188="", "", IF(H188="-","",VLOOKUP(H188, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="189" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K189" s="11" t="str">
         <f>IF(H189="", "", IF(H189="-","",VLOOKUP(H189, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="190" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K190" s="11" t="str">
         <f>IF(H190="", "", IF(H190="-","",VLOOKUP(H190, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="191" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K191" s="11" t="str">
         <f>IF(H191="", "", IF(H191="-","",VLOOKUP(H191, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="192" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K192" s="11" t="str">
         <f>IF(H192="", "", IF(H192="-","",VLOOKUP(H192, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="193" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K193" s="11" t="str">
         <f>IF(H193="", "", IF(H193="-","",VLOOKUP(H193, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="194" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K194" s="11" t="str">
         <f>IF(H194="", "", IF(H194="-","",VLOOKUP(H194, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="195" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K195" s="11" t="str">
         <f>IF(H195="", "", IF(H195="-","",VLOOKUP(H195, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="196" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K196" s="11" t="str">
         <f>IF(H196="", "", IF(H196="-","",VLOOKUP(H196, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="197" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K197" s="11" t="str">
         <f>IF(H197="", "", IF(H197="-","",VLOOKUP(H197, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="198" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K198" s="11" t="str">
         <f>IF(H198="", "", IF(H198="-","",VLOOKUP(H198, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="199" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K199" s="11" t="str">
         <f>IF(H199="", "", IF(H199="-","",VLOOKUP(H199, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="200" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K200" s="11" t="str">
         <f>IF(H200="", "", IF(H200="-","",VLOOKUP(H200, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="201" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K201" s="11" t="str">
         <f>IF(H201="", "", IF(H201="-","",VLOOKUP(H201, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="202" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K202" s="11" t="str">
         <f>IF(H202="", "", IF(H202="-","",VLOOKUP(H202, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="203" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K203" s="11" t="str">
         <f>IF(H203="", "", IF(H203="-","",VLOOKUP(H203, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="204" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K204" s="11" t="str">
         <f>IF(H204="", "", IF(H204="-","",VLOOKUP(H204, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="205" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K205" s="11" t="str">
         <f>IF(H205="", "", IF(H205="-","",VLOOKUP(H205, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="206" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K206" s="11" t="str">
         <f>IF(H206="", "", IF(H206="-","",VLOOKUP(H206, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="207" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K207" s="11" t="str">
         <f>IF(H207="", "", IF(H207="-","",VLOOKUP(H207, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="208" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K208" s="11" t="str">
         <f>IF(H208="", "", IF(H208="-","",VLOOKUP(H208, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="209" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K209" s="11" t="str">
         <f>IF(H209="", "", IF(H209="-","",VLOOKUP(H209, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="210" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K210" s="11" t="str">
         <f>IF(H210="", "", IF(H210="-","",VLOOKUP(H210, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="211" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K211" s="11" t="str">
         <f>IF(H211="", "", IF(H211="-","",VLOOKUP(H211, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="212" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K212" s="11" t="str">
         <f>IF(H212="", "", IF(H212="-","",VLOOKUP(H212, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="213" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K213" s="11" t="str">
         <f>IF(H213="", "", IF(H213="-","",VLOOKUP(H213, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="214" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K214" s="11" t="str">
         <f>IF(H214="", "", IF(H214="-","",VLOOKUP(H214, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="215" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K215" s="11" t="str">
         <f>IF(H215="", "", IF(H215="-","",VLOOKUP(H215, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="216" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K216" s="11" t="str">
         <f>IF(H216="", "", IF(H216="-","",VLOOKUP(H216, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="217" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K217" s="11" t="str">
         <f>IF(H217="", "", IF(H217="-","",VLOOKUP(H217, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
@@ -14708,7 +14717,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" showInputMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>Мойки!$A$1:$A$3</xm:f>
           </x14:formula1>
@@ -14717,7 +14726,7 @@
           </x14:formula2>
           <xm:sqref>L1:L37 L38:L119</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>'Типы варок'!$A$1:$A$102</xm:f>
           </x14:formula1>
@@ -14726,7 +14735,7 @@
           </x14:formula2>
           <xm:sqref>B2:B37 B38:B119</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
           <x14:formula1>
             <xm:f>'Форм фактор плавления'!$A$1:$A$25</xm:f>
           </x14:formula1>
@@ -14735,7 +14744,7 @@
           </x14:formula2>
           <xm:sqref>E2:F37 E38:F119</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
           <x14:formula1>
             <xm:f>'Вода SKU'!$A$1:$A$137</xm:f>
           </x14:formula1>
@@ -14751,7 +14760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMK272"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -14759,33 +14768,30 @@
       <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="10.36328125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.26953125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="43.1796875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" style="1" customWidth="1"/>
-    <col min="10" max="11" width="8.7265625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" style="11" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" style="21" customWidth="1"/>
-    <col min="14" max="14" width="8.7265625" style="22" customWidth="1"/>
-    <col min="15" max="15" width="1.81640625" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="5.54296875" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="5.453125" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="7" width="10.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="43.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="8.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="11" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" style="21" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" style="22" customWidth="1"/>
+    <col min="15" max="15" width="1.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="5.5" style="1" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="5" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="7.54296875" style="1" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="3.1796875" style="1" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="6.6328125" style="1" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="14.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="3.1640625" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="6.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5" style="1" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="12" style="1" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="8.54296875" style="1" hidden="1" customWidth="1"/>
-    <col min="25" max="1025" width="8.54296875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="8.5" style="1" hidden="1" customWidth="1"/>
+    <col min="25" max="1025" width="8.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>303</v>
       </c>
@@ -14856,7 +14862,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38">
         <f ca="1">IF(O2="-", "-", 1 + MAX(Вода!$A$4:$A$97) + SUM(INDIRECT(ADDRESS(2,COLUMN(R2)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R2)))))</f>
         <v>9</v>
@@ -14935,7 +14941,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="str">
         <f ca="1">IF(O3="-", "-", 1 + MAX(Вода!$A$4:$A$97) + SUM(INDIRECT(ADDRESS(2,COLUMN(R3)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R3)))))</f>
         <v>-</v>
@@ -15013,7 +15019,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38">
         <f ca="1">IF(O4="-", "-", 1 + MAX(Вода!$A$4:$A$97) + SUM(INDIRECT(ADDRESS(2,COLUMN(R4)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R4)))))</f>
         <v>10</v>
@@ -15092,7 +15098,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="38">
         <f ca="1">IF(O5="-", "-", 1 + MAX(Вода!$A$4:$A$97) + SUM(INDIRECT(ADDRESS(2,COLUMN(R5)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R5)))))</f>
         <v>10</v>
@@ -15171,7 +15177,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="38">
         <f ca="1">IF(O6="-", "-", 1 + MAX(Вода!$A$4:$A$97) + SUM(INDIRECT(ADDRESS(2,COLUMN(R6)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R6)))))</f>
         <v>10</v>
@@ -15250,7 +15256,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38">
         <f ca="1">IF(O7="-", "-", 1 + MAX(Вода!$A$4:$A$97) + SUM(INDIRECT(ADDRESS(2,COLUMN(R7)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R7)))))</f>
         <v>10</v>
@@ -15329,7 +15335,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="39">
         <f ca="1">IF(O8="-", "-", 1 + MAX(Вода!$A$4:$A$97) + SUM(INDIRECT(ADDRESS(2,COLUMN(R8)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R8)))))</f>
         <v>10</v>
@@ -15408,7 +15414,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="39">
         <f ca="1">IF(O9="-", "-", 1 + MAX(Вода!$A$4:$A$97) + SUM(INDIRECT(ADDRESS(2,COLUMN(R9)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R9)))))</f>
         <v>10</v>
@@ -15487,7 +15493,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="str">
         <f ca="1">IF(O10="-", "-", 1 + MAX(Вода!$A$4:$A$97) + SUM(INDIRECT(ADDRESS(2,COLUMN(R10)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R10)))))</f>
         <v>-</v>
@@ -15565,7 +15571,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="39">
         <f ca="1">IF(O11="-", "-", 1 + MAX(Вода!$A$4:$A$97) + SUM(INDIRECT(ADDRESS(2,COLUMN(R11)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R11)))))</f>
         <v>11</v>
@@ -15644,7 +15650,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="str">
         <f ca="1">IF(O12="-", "-", 1 + MAX(Вода!$A$4:$A$97) + SUM(INDIRECT(ADDRESS(2,COLUMN(R12)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R12)))))</f>
         <v>-</v>
@@ -15722,7 +15728,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="39">
         <f ca="1">IF(O13="-", "-", 1 + MAX(Вода!$A$4:$A$97) + SUM(INDIRECT(ADDRESS(2,COLUMN(R13)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R13)))))</f>
         <v>12</v>
@@ -15801,7 +15807,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="38">
         <f ca="1">IF(O14="-", "-", 1 + MAX(Вода!$A$4:$A$97) + SUM(INDIRECT(ADDRESS(2,COLUMN(R14)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R14)))))</f>
         <v>12</v>
@@ -15880,7 +15886,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="38">
         <f ca="1">IF(O15="-", "-", 1 + MAX(Вода!$A$4:$A$97) + SUM(INDIRECT(ADDRESS(2,COLUMN(R15)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R15)))))</f>
         <v>12</v>
@@ -15959,7 +15965,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="35" t="str">
         <f ca="1">IF(O16="-", "-", 1 + MAX(Вода!$A$4:$A$97) + SUM(INDIRECT(ADDRESS(2,COLUMN(R16)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R16)))))</f>
         <v>-</v>
@@ -16037,7 +16043,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="40">
         <f ca="1">IF(O17="-", "-", 1 + MAX(Вода!$A$4:$A$97) + SUM(INDIRECT(ADDRESS(2,COLUMN(R17)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R17)))))</f>
         <v>13</v>
@@ -16116,7 +16122,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="35" t="str">
         <f ca="1">IF(O18="-", "-", 1 + MAX(Вода!$A$4:$A$97) + SUM(INDIRECT(ADDRESS(2,COLUMN(R18)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R18)))))</f>
         <v>-</v>
@@ -16194,7 +16200,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="40">
         <f ca="1">IF(O19="-", "-", 1 + MAX(Вода!$A$4:$A$97) + SUM(INDIRECT(ADDRESS(2,COLUMN(R19)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R19)))))</f>
         <v>14</v>
@@ -16273,7 +16279,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="38">
         <f ca="1">IF(O20="-", "-", 1 + MAX(Вода!$A$4:$A$97) + SUM(INDIRECT(ADDRESS(2,COLUMN(R20)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R20)))))</f>
         <v>14</v>
@@ -16352,7 +16358,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="38">
         <f ca="1">IF(O21="-", "-", 1 + MAX(Вода!$A$4:$A$97) + SUM(INDIRECT(ADDRESS(2,COLUMN(R21)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R21)))))</f>
         <v>14</v>
@@ -16431,7 +16437,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="35" t="str">
         <f ca="1">IF(O22="-", "-", 1 + MAX(Вода!$A$4:$A$97) + SUM(INDIRECT(ADDRESS(2,COLUMN(R22)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R22)))))</f>
         <v>-</v>
@@ -16509,7 +16515,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="38">
         <f ca="1">IF(O23="-", "-", 1 + MAX(Вода!$A$4:$A$97) + SUM(INDIRECT(ADDRESS(2,COLUMN(R23)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R23)))))</f>
         <v>15</v>
@@ -16588,7 +16594,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="38">
         <f ca="1">IF(O24="-", "-", 1 + MAX(Вода!$A$4:$A$97) + SUM(INDIRECT(ADDRESS(2,COLUMN(R24)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R24)))))</f>
         <v>15</v>
@@ -16667,7 +16673,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="39">
         <f ca="1">IF(O25="-", "-", 1 + MAX(Вода!$A$4:$A$97) + SUM(INDIRECT(ADDRESS(2,COLUMN(R25)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R25)))))</f>
         <v>15</v>
@@ -16746,7 +16752,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="39">
         <f ca="1">IF(O26="-", "-", 1 + MAX(Вода!$A$4:$A$97) + SUM(INDIRECT(ADDRESS(2,COLUMN(R26)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R26)))))</f>
         <v>15</v>
@@ -16825,7 +16831,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="39">
         <f ca="1">IF(O27="-", "-", 1 + MAX(Вода!$A$4:$A$97) + SUM(INDIRECT(ADDRESS(2,COLUMN(R27)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R27)))))</f>
         <v>15</v>
@@ -16905,7 +16911,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="35" t="str">
         <f ca="1">IF(O28="-", "-", 1 + MAX(Вода!$A$4:$A$97) + SUM(INDIRECT(ADDRESS(2,COLUMN(R28)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R28)))))</f>
         <v>-</v>
@@ -16983,7 +16989,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="39">
         <f ca="1">IF(O29="-", "-", 1 + MAX(Вода!$A$4:$A$97) + SUM(INDIRECT(ADDRESS(2,COLUMN(R29)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R29)))))</f>
         <v>16</v>
@@ -17062,7 +17068,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="39">
         <f ca="1">IF(O30="-", "-", 1 + MAX(Вода!$A$4:$A$97) + SUM(INDIRECT(ADDRESS(2,COLUMN(R30)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R30)))))</f>
         <v>16</v>
@@ -17141,7 +17147,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="35" t="str">
         <f ca="1">IF(O31="-", "-", 1 + MAX(Вода!$A$4:$A$97) + SUM(INDIRECT(ADDRESS(2,COLUMN(R31)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R31)))))</f>
         <v>-</v>
@@ -17219,7 +17225,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="39">
         <f ca="1">IF(O32="-", "-", 1 + MAX(Вода!$A$4:$A$97) + SUM(INDIRECT(ADDRESS(2,COLUMN(R32)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R32)))))</f>
         <v>17</v>
@@ -17298,7 +17304,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="39">
         <f ca="1">IF(O33="-", "-", 1 + MAX(Вода!$A$4:$A$97) + SUM(INDIRECT(ADDRESS(2,COLUMN(R33)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R33)))))</f>
         <v>17</v>
@@ -17377,7 +17383,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="35" t="str">
         <f ca="1">IF(O34="-", "-", 1 + MAX(Вода!$A$4:$A$97) + SUM(INDIRECT(ADDRESS(2,COLUMN(R34)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R34)))))</f>
         <v>-</v>
@@ -17455,7 +17461,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="39">
         <f ca="1">IF(O35="-", "-", 1 + MAX(Вода!$A$4:$A$97) + SUM(INDIRECT(ADDRESS(2,COLUMN(R35)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R35)))))</f>
         <v>18</v>
@@ -17534,7 +17540,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="35" t="str">
         <f ca="1">IF(O36="-", "-", 1 + MAX(Вода!$A$4:$A$97) + SUM(INDIRECT(ADDRESS(2,COLUMN(R36)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R36)))))</f>
         <v>-</v>
@@ -17612,7 +17618,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="39">
         <f ca="1">IF(O37="-", "-", 1 + MAX(Вода!$A$4:$A$97) + SUM(INDIRECT(ADDRESS(2,COLUMN(R37)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R37)))))</f>
         <v>19</v>
@@ -17691,7 +17697,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="35" t="str">
         <f ca="1">IF(O38="-", "-", 1 + MAX(Вода!$A$4:$A$97) + SUM(INDIRECT(ADDRESS(2,COLUMN(R38)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R38)))))</f>
         <v>-</v>
@@ -17769,7 +17775,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="39">
         <f ca="1">IF(O39="-", "-", 1 + MAX(Вода!$A$4:$A$97) + SUM(INDIRECT(ADDRESS(2,COLUMN(R39)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R39)))))</f>
         <v>20</v>
@@ -17848,7 +17854,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="38">
         <f ca="1">IF(O40="-", "-", 1 + MAX(Вода!$A$4:$A$97) + SUM(INDIRECT(ADDRESS(2,COLUMN(R40)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R40)))))</f>
         <v>20</v>
@@ -17927,7 +17933,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="39">
         <f ca="1">IF(O41="-", "-", 1 + MAX(Вода!$A$4:$A$97) + SUM(INDIRECT(ADDRESS(2,COLUMN(R41)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R41)))))</f>
         <v>20</v>
@@ -18006,7 +18012,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="35" t="str">
         <f ca="1">IF(O42="-", "-", 1 + MAX(Вода!$A$4:$A$97) + SUM(INDIRECT(ADDRESS(2,COLUMN(R42)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R42)))))</f>
         <v>-</v>
@@ -18084,7 +18090,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J43" s="11" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
@@ -18135,7 +18141,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J44" s="11" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
@@ -18186,7 +18192,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J45" s="11" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
@@ -18237,7 +18243,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J46" s="11" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
@@ -18288,7 +18294,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J47" s="11" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
@@ -18339,7 +18345,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J48" s="11" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
@@ -18390,7 +18396,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J49" s="11" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
@@ -18441,7 +18447,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J50" s="11" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
@@ -18492,7 +18498,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J51" s="11" t="str">
         <f t="shared" ref="J51:J82" ca="1" si="28">IF(M51="", IF(O51="","",X51+(INDIRECT("S" &amp; ROW() - 1) - S51)),IF(O51="", "", INDIRECT("S" &amp; ROW() - 1) - S51))</f>
         <v/>
@@ -18511,7 +18517,7 @@
         <v>0</v>
       </c>
       <c r="Q51" s="1">
-        <f t="shared" ref="Q51:Q82" ca="1" si="31">IF(O51 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(P51)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(P51)))), 0)</f>
+        <f t="shared" ref="Q51:Q58" ca="1" si="31">IF(O51 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(P51)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(P51)))), 0)</f>
         <v>0</v>
       </c>
       <c r="R51" s="1">
@@ -18543,7 +18549,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J52" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -18594,7 +18600,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J53" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -18645,7 +18651,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J54" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -18696,7 +18702,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J55" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -18747,7 +18753,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J56" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -18798,7 +18804,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J57" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -18849,7 +18855,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J58" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -18900,7 +18906,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J59" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -18951,7 +18957,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J60" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -19002,7 +19008,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J61" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -19053,7 +19059,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J62" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -19104,7 +19110,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J63" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -19155,7 +19161,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J64" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -19206,7 +19212,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J65" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -19257,7 +19263,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J66" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -19308,7 +19314,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J67" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -19359,7 +19365,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J68" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -19410,7 +19416,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J69" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -19461,7 +19467,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J70" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -19512,7 +19518,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J71" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -19563,7 +19569,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J72" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -19614,7 +19620,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J73" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -19665,7 +19671,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J74" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -19716,7 +19722,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J75" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -19767,7 +19773,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J76" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -19818,7 +19824,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J77" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -19869,7 +19875,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J78" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -19920,7 +19926,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J79" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -19971,7 +19977,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J80" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -20022,7 +20028,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J81" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -20073,7 +20079,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J82" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -20124,7 +20130,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J83" s="11" t="str">
         <f t="shared" ref="J83:J107" ca="1" si="39">IF(M83="", IF(O83="","",X83+(INDIRECT("S" &amp; ROW() - 1) - S83)),IF(O83="", "", INDIRECT("S" &amp; ROW() - 1) - S83))</f>
         <v/>
@@ -20135,11 +20141,11 @@
       </c>
       <c r="M83" s="20"/>
       <c r="N83" s="19" t="str">
-        <f t="shared" ref="N83:N114" ca="1" si="40">IF(M83="", IF(X83=0, "", X83), IF(V83 = "", "", IF(V83/U83 = 0, "", V83/U83)))</f>
+        <f t="shared" ref="N83:N107" ca="1" si="40">IF(M83="", IF(X83=0, "", X83), IF(V83 = "", "", IF(V83/U83 = 0, "", V83/U83)))</f>
         <v/>
       </c>
       <c r="P83" s="1">
-        <f t="shared" ref="P83:P114" si="41">IF(O83 = "-", -W83,I83)</f>
+        <f t="shared" ref="P83:P107" si="41">IF(O83 = "-", -W83,I83)</f>
         <v>0</v>
       </c>
       <c r="Q83" s="1">
@@ -20167,7 +20173,7 @@
         <v>0</v>
       </c>
       <c r="W83" s="1">
-        <f t="shared" ref="W83:W114" ca="1" si="46">IF(V83 = "", "", V83/U83)</f>
+        <f t="shared" ref="W83:W107" ca="1" si="46">IF(V83 = "", "", V83/U83)</f>
         <v>0</v>
       </c>
       <c r="X83" s="1" t="str">
@@ -20175,7 +20181,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J84" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -20226,7 +20232,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J85" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -20277,7 +20283,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J86" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -20328,7 +20334,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J87" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -20379,7 +20385,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J88" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -20430,7 +20436,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J89" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -20481,7 +20487,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J90" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -20532,7 +20538,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J91" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -20583,7 +20589,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J92" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -20634,7 +20640,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J93" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -20685,7 +20691,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J94" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -20736,7 +20742,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J95" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -20787,7 +20793,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J96" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -20838,7 +20844,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J97" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -20889,7 +20895,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J98" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -20940,7 +20946,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J99" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -20991,7 +20997,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J100" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -21042,7 +21048,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J101" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -21093,7 +21099,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J102" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -21144,7 +21150,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J103" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -21195,7 +21201,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J104" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -21246,7 +21252,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J105" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -21297,7 +21303,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J106" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -21348,7 +21354,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J107" s="11" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
@@ -21399,991 +21405,991 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K108" s="18" t="str">
         <f>IF(H108="", "", IF(H108="-","",VLOOKUP(H108, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="109" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K109" s="18" t="str">
         <f>IF(H109="", "", IF(H109="-","",VLOOKUP(H109, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="110" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K110" s="18" t="str">
         <f>IF(H110="", "", IF(H110="-","",VLOOKUP(H110, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="111" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K111" s="18" t="str">
         <f>IF(H111="", "", IF(H111="-","",VLOOKUP(H111, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="112" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K112" s="18" t="str">
         <f>IF(H112="", "", IF(H112="-","",VLOOKUP(H112, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="113" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K113" s="18" t="str">
         <f>IF(H113="", "", IF(H113="-","",VLOOKUP(H113, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="114" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K114" s="18" t="str">
         <f>IF(H114="", "", IF(H114="-","",VLOOKUP(H114, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="115" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K115" s="18" t="str">
         <f>IF(H115="", "", IF(H115="-","",VLOOKUP(H115, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="116" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K116" s="18" t="str">
         <f>IF(H116="", "", IF(H116="-","",VLOOKUP(H116, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="117" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K117" s="18" t="str">
         <f>IF(H117="", "", IF(H117="-","",VLOOKUP(H117, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="118" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K118" s="18" t="str">
         <f>IF(H118="", "", IF(H118="-","",VLOOKUP(H118, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="119" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K119" s="18" t="str">
         <f>IF(H119="", "", IF(H119="-","",VLOOKUP(H119, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="120" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K120" s="18" t="str">
         <f>IF(H120="", "", IF(H120="-","",VLOOKUP(H120, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="121" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K121" s="18" t="str">
         <f>IF(H121="", "", IF(H121="-","",VLOOKUP(H121, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="122" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K122" s="18" t="str">
         <f>IF(H122="", "", IF(H122="-","",VLOOKUP(H122, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="123" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K123" s="18" t="str">
         <f>IF(H123="", "", IF(H123="-","",VLOOKUP(H123, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="124" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K124" s="18" t="str">
         <f>IF(H124="", "", IF(H124="-","",VLOOKUP(H124, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="125" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K125" s="18" t="str">
         <f>IF(H125="", "", IF(H125="-","",VLOOKUP(H125, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="126" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K126" s="18" t="str">
         <f>IF(H126="", "", IF(H126="-","",VLOOKUP(H126, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="127" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K127" s="18" t="str">
         <f>IF(H127="", "", IF(H127="-","",VLOOKUP(H127, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="128" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K128" s="18" t="str">
         <f>IF(H128="", "", IF(H128="-","",VLOOKUP(H128, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="129" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K129" s="18" t="str">
         <f>IF(H129="", "", IF(H129="-","",VLOOKUP(H129, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="130" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K130" s="18" t="str">
         <f>IF(H130="", "", IF(H130="-","",VLOOKUP(H130, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="131" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K131" s="18" t="str">
         <f>IF(H131="", "", IF(H131="-","",VLOOKUP(H131, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="132" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K132" s="18" t="str">
         <f>IF(H132="", "", IF(H132="-","",VLOOKUP(H132, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="133" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K133" s="18" t="str">
         <f>IF(H133="", "", IF(H133="-","",VLOOKUP(H133, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="134" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K134" s="18" t="str">
         <f>IF(H134="", "", IF(H134="-","",VLOOKUP(H134, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="135" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K135" s="18" t="str">
         <f>IF(H135="", "", IF(H135="-","",VLOOKUP(H135, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="136" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K136" s="18" t="str">
         <f>IF(H136="", "", IF(H136="-","",VLOOKUP(H136, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="137" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K137" s="18" t="str">
         <f>IF(H137="", "", IF(H137="-","",VLOOKUP(H137, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="138" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K138" s="18" t="str">
         <f>IF(H138="", "", IF(H138="-","",VLOOKUP(H138, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="139" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K139" s="18" t="str">
         <f>IF(H139="", "", IF(H139="-","",VLOOKUP(H139, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="140" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K140" s="18" t="str">
         <f>IF(H140="", "", IF(H140="-","",VLOOKUP(H140, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="141" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K141" s="18" t="str">
         <f>IF(H141="", "", IF(H141="-","",VLOOKUP(H141, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="142" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K142" s="18" t="str">
         <f>IF(H142="", "", IF(H142="-","",VLOOKUP(H142, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="143" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K143" s="18" t="str">
         <f>IF(H143="", "", IF(H143="-","",VLOOKUP(H143, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="144" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K144" s="24" t="str">
         <f>IF(H144="", "", IF(H144="-","",VLOOKUP(H144, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="145" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K145" s="24" t="str">
         <f>IF(H145="", "", IF(H145="-","",VLOOKUP(H145, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="146" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K146" s="24" t="str">
         <f>IF(H146="", "", IF(H146="-","",VLOOKUP(H146, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="147" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K147" s="24" t="str">
         <f>IF(H147="", "", IF(H147="-","",VLOOKUP(H147, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="148" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K148" s="24" t="str">
         <f>IF(H148="", "", IF(H148="-","",VLOOKUP(H148, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="149" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K149" s="1" t="str">
         <f>IF(H149="", "", IF(H149="-","",VLOOKUP(H149, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="150" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K150" s="1" t="str">
         <f>IF(H150="", "", IF(H150="-","",VLOOKUP(H150, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="151" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K151" s="1" t="str">
         <f>IF(H151="", "", IF(H151="-","",VLOOKUP(H151, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="152" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K152" s="1" t="str">
         <f>IF(H152="", "", IF(H152="-","",VLOOKUP(H152, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="153" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K153" s="1" t="str">
         <f>IF(H153="", "", IF(H153="-","",VLOOKUP(H153, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="154" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K154" s="1" t="str">
         <f>IF(H154="", "", IF(H154="-","",VLOOKUP(H154, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="155" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K155" s="1" t="str">
         <f>IF(H155="", "", IF(H155="-","",VLOOKUP(H155, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="156" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K156" s="1" t="str">
         <f>IF(H156="", "", IF(H156="-","",VLOOKUP(H156, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="157" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K157" s="1" t="str">
         <f>IF(H157="", "", IF(H157="-","",VLOOKUP(H157, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="158" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K158" s="1" t="str">
         <f>IF(H158="", "", IF(H158="-","",VLOOKUP(H158, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="159" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K159" s="1" t="str">
         <f>IF(H159="", "", IF(H159="-","",VLOOKUP(H159, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="160" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K160" s="1" t="str">
         <f>IF(H160="", "", IF(H160="-","",VLOOKUP(H160, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="161" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K161" s="1" t="str">
         <f>IF(H161="", "", IF(H161="-","",VLOOKUP(H161, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="162" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K162" s="1" t="str">
         <f>IF(H162="", "", IF(H162="-","",VLOOKUP(H162, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="163" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K163" s="1" t="str">
         <f>IF(H163="", "", IF(H163="-","",VLOOKUP(H163, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="164" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K164" s="1" t="str">
         <f>IF(H164="", "", IF(H164="-","",VLOOKUP(H164, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="165" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K165" s="1" t="str">
         <f>IF(H165="", "", IF(H165="-","",VLOOKUP(H165, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="166" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K166" s="1" t="str">
         <f>IF(H166="", "", IF(H166="-","",VLOOKUP(H166, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="167" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K167" s="1" t="str">
         <f>IF(H167="", "", IF(H167="-","",VLOOKUP(H167, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="168" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K168" s="1" t="str">
         <f>IF(H168="", "", IF(H168="-","",VLOOKUP(H168, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="169" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K169" s="1" t="str">
         <f>IF(H169="", "", IF(H169="-","",VLOOKUP(H169, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="170" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K170" s="1" t="str">
         <f>IF(H170="", "", IF(H170="-","",VLOOKUP(H170, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="171" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K171" s="1" t="str">
         <f>IF(H171="", "", IF(H171="-","",VLOOKUP(H171, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="172" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K172" s="1" t="str">
         <f>IF(H172="", "", IF(H172="-","",VLOOKUP(H172, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="173" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K173" s="1" t="str">
         <f>IF(H173="", "", IF(H173="-","",VLOOKUP(H173, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="174" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K174" s="1" t="str">
         <f>IF(H174="", "", IF(H174="-","",VLOOKUP(H174, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="175" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K175" s="1" t="str">
         <f>IF(H175="", "", IF(H175="-","",VLOOKUP(H175, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="176" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K176" s="1" t="str">
         <f>IF(H176="", "", IF(H176="-","",VLOOKUP(H176, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="177" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K177" s="1" t="str">
         <f>IF(H177="", "", IF(H177="-","",VLOOKUP(H177, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="178" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K178" s="1" t="str">
         <f>IF(H178="", "", IF(H178="-","",VLOOKUP(H178, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="179" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K179" s="1" t="str">
         <f>IF(H179="", "", IF(H179="-","",VLOOKUP(H179, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="180" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K180" s="1" t="str">
         <f>IF(H180="", "", IF(H180="-","",VLOOKUP(H180, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="181" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K181" s="1" t="str">
         <f>IF(H181="", "", IF(H181="-","",VLOOKUP(H181, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="182" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K182" s="1" t="str">
         <f>IF(H182="", "", IF(H182="-","",VLOOKUP(H182, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="183" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K183" s="1" t="str">
         <f>IF(H183="", "", IF(H183="-","",VLOOKUP(H183, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K184" s="1" t="str">
         <f>IF(H184="", "", IF(H184="-","",VLOOKUP(H184, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="185" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K185" s="1" t="str">
         <f>IF(H185="", "", IF(H185="-","",VLOOKUP(H185, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="186" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K186" s="1" t="str">
         <f>IF(H186="", "", IF(H186="-","",VLOOKUP(H186, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="187" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K187" s="1" t="str">
         <f>IF(H187="", "", IF(H187="-","",VLOOKUP(H187, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="188" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K188" s="1" t="str">
         <f>IF(H188="", "", IF(H188="-","",VLOOKUP(H188, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="189" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K189" s="1" t="str">
         <f>IF(H189="", "", IF(H189="-","",VLOOKUP(H189, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="190" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K190" s="1" t="str">
         <f>IF(H190="", "", IF(H190="-","",VLOOKUP(H190, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="191" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K191" s="1" t="str">
         <f>IF(H191="", "", IF(H191="-","",VLOOKUP(H191, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="192" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K192" s="1" t="str">
         <f>IF(H192="", "", IF(H192="-","",VLOOKUP(H192, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="193" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K193" s="1" t="str">
         <f>IF(H193="", "", IF(H193="-","",VLOOKUP(H193, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="194" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K194" s="1" t="str">
         <f>IF(H194="", "", IF(H194="-","",VLOOKUP(H194, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="195" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K195" s="1" t="str">
         <f>IF(H195="", "", IF(H195="-","",VLOOKUP(H195, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="196" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K196" s="1" t="str">
         <f>IF(H196="", "", IF(H196="-","",VLOOKUP(H196, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="197" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K197" s="1" t="str">
         <f>IF(H197="", "", IF(H197="-","",VLOOKUP(H197, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="198" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K198" s="1" t="str">
         <f>IF(H198="", "", IF(H198="-","",VLOOKUP(H198, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="199" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K199" s="1" t="str">
         <f>IF(H199="", "", IF(H199="-","",VLOOKUP(H199, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="200" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K200" s="1" t="str">
         <f>IF(H200="", "", IF(H200="-","",VLOOKUP(H200, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="201" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K201" s="1" t="str">
         <f>IF(H201="", "", IF(H201="-","",VLOOKUP(H201, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="202" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K202" s="1" t="str">
         <f>IF(H202="", "", IF(H202="-","",VLOOKUP(H202, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="203" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K203" s="1" t="str">
         <f>IF(H203="", "", IF(H203="-","",VLOOKUP(H203, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="204" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K204" s="1" t="str">
         <f>IF(H204="", "", IF(H204="-","",VLOOKUP(H204, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="205" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K205" s="1" t="str">
         <f>IF(H205="", "", IF(H205="-","",VLOOKUP(H205, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="206" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K206" s="1" t="str">
         <f>IF(H206="", "", IF(H206="-","",VLOOKUP(H206, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="207" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K207" s="1" t="str">
         <f>IF(H207="", "", IF(H207="-","",VLOOKUP(H207, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="208" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K208" s="1" t="str">
         <f>IF(H208="", "", IF(H208="-","",VLOOKUP(H208, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="209" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K209" s="1" t="str">
         <f>IF(H209="", "", IF(H209="-","",VLOOKUP(H209, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="210" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K210" s="1" t="str">
         <f>IF(H210="", "", IF(H210="-","",VLOOKUP(H210, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="211" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K211" s="1" t="str">
         <f>IF(H211="", "", IF(H211="-","",VLOOKUP(H211, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="212" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K212" s="1" t="str">
         <f>IF(H212="", "", IF(H212="-","",VLOOKUP(H212, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="213" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K213" s="1" t="str">
         <f>IF(H213="", "", IF(H213="-","",VLOOKUP(H213, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="214" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K214" s="1" t="str">
         <f>IF(H214="", "", IF(H214="-","",VLOOKUP(H214, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="215" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K215" s="1" t="str">
         <f>IF(H215="", "", IF(H215="-","",VLOOKUP(H215, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="216" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K216" s="1" t="str">
         <f>IF(H216="", "", IF(H216="-","",VLOOKUP(H216, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="217" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K217" s="1" t="str">
         <f>IF(H217="", "", IF(H217="-","",VLOOKUP(H217, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="218" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K218" s="1" t="str">
         <f>IF(H218="", "", IF(H218="-","",VLOOKUP(H218, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="219" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K219" s="1" t="str">
         <f>IF(H219="", "", IF(H219="-","",VLOOKUP(H219, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="220" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K220" s="1" t="str">
         <f>IF(H220="", "", IF(H220="-","",VLOOKUP(H220, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="221" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K221" s="1" t="str">
         <f>IF(H221="", "", IF(H221="-","",VLOOKUP(H221, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="222" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K222" s="1" t="str">
         <f>IF(H222="", "", IF(H222="-","",VLOOKUP(H222, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="223" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K223" s="1" t="str">
         <f>IF(H223="", "", IF(H223="-","",VLOOKUP(H223, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="224" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K224" s="1" t="str">
         <f>IF(H224="", "", IF(H224="-","",VLOOKUP(H224, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="225" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K225" s="1" t="str">
         <f>IF(H225="", "", IF(H225="-","",VLOOKUP(H225, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="226" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K226" s="1" t="str">
         <f>IF(H226="", "", IF(H226="-","",VLOOKUP(H226, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="227" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K227" s="1" t="str">
         <f>IF(H227="", "", IF(H227="-","",VLOOKUP(H227, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="228" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K228" s="1" t="str">
         <f>IF(H228="", "", IF(H228="-","",VLOOKUP(H228, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="229" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K229" s="1" t="str">
         <f>IF(H229="", "", IF(H229="-","",VLOOKUP(H229, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="230" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K230" s="1" t="str">
         <f>IF(H230="", "", IF(H230="-","",VLOOKUP(H230, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="231" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K231" s="1" t="str">
         <f>IF(H231="", "", IF(H231="-","",VLOOKUP(H231, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="232" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K232" s="1" t="str">
         <f>IF(H232="", "", IF(H232="-","",VLOOKUP(H232, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="233" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K233" s="1" t="str">
         <f>IF(H233="", "", IF(H233="-","",VLOOKUP(H233, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="234" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K234" s="1" t="str">
         <f>IF(H234="", "", IF(H234="-","",VLOOKUP(H234, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="235" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K235" s="1" t="str">
         <f>IF(H235="", "", IF(H235="-","",VLOOKUP(H235, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="236" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K236" s="1" t="str">
         <f>IF(H236="", "", IF(H236="-","",VLOOKUP(H236, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="237" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K237" s="1" t="str">
         <f>IF(H237="", "", IF(H237="-","",VLOOKUP(H237, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="238" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K238" s="1" t="str">
         <f>IF(H238="", "", IF(H238="-","",VLOOKUP(H238, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="239" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K239" s="1" t="str">
         <f>IF(H239="", "", IF(H239="-","",VLOOKUP(H239, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="240" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K240" s="1" t="str">
         <f>IF(H240="", "", IF(H240="-","",VLOOKUP(H240, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="241" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K241" s="1" t="str">
         <f>IF(H241="", "", IF(H241="-","",VLOOKUP(H241, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="242" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K242" s="1" t="str">
         <f>IF(H242="", "", IF(H242="-","",VLOOKUP(H242, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="243" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K243" s="1" t="str">
         <f>IF(H243="", "", IF(H243="-","",VLOOKUP(H243, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="244" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K244" s="1" t="str">
         <f>IF(H244="", "", IF(H244="-","",VLOOKUP(H244, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="245" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K245" s="1" t="str">
         <f>IF(H245="", "", IF(H245="-","",VLOOKUP(H245, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="246" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K246" s="1" t="str">
         <f>IF(H246="", "", IF(H246="-","",VLOOKUP(H246, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="247" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K247" s="1" t="str">
         <f>IF(H247="", "", IF(H247="-","",VLOOKUP(H247, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="248" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K248" s="1" t="str">
         <f>IF(H248="", "", IF(H248="-","",VLOOKUP(H248, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="249" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K249" s="1" t="str">
         <f>IF(H249="", "", IF(H249="-","",VLOOKUP(H249, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="250" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K250" s="1" t="str">
         <f>IF(H250="", "", IF(H250="-","",VLOOKUP(H250, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="251" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K251" s="1" t="str">
         <f>IF(H251="", "", IF(H251="-","",VLOOKUP(H251, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="252" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K252" s="1" t="str">
         <f>IF(H252="", "", IF(H252="-","",VLOOKUP(H252, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="253" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K253" s="1" t="str">
         <f>IF(H253="", "", IF(H253="-","",VLOOKUP(H253, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="254" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K254" s="1" t="str">
         <f>IF(H254="", "", IF(H254="-","",VLOOKUP(H254, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="255" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K255" s="1" t="str">
         <f>IF(H255="", "", IF(H255="-","",VLOOKUP(H255, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="256" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K256" s="1" t="str">
         <f>IF(H256="", "", IF(H256="-","",VLOOKUP(H256, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="257" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K257" s="1" t="str">
         <f>IF(H257="", "", IF(H257="-","",VLOOKUP(H257, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="258" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K258" s="1" t="str">
         <f>IF(H258="", "", IF(H258="-","",VLOOKUP(H258, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="259" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K259" s="1" t="str">
         <f>IF(H259="", "", IF(H259="-","",VLOOKUP(H259, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="260" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K260" s="1" t="str">
         <f>IF(H260="", "", IF(H260="-","",VLOOKUP(H260, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="261" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K261" s="1" t="str">
         <f>IF(H261="", "", IF(H261="-","",VLOOKUP(H261, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="262" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K262" s="1" t="str">
         <f>IF(H262="", "", IF(H262="-","",VLOOKUP(H262, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="263" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K263" s="1" t="str">
         <f>IF(H263="", "", IF(H263="-","",VLOOKUP(H263, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="264" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K264" s="1" t="str">
         <f>IF(H264="", "", IF(H264="-","",VLOOKUP(H264, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="265" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K265" s="1" t="str">
         <f>IF(H265="", "", IF(H265="-","",VLOOKUP(H265, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="266" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K266" s="1" t="str">
         <f>IF(H266="", "", IF(H266="-","",VLOOKUP(H266, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="267" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K267" s="1" t="str">
         <f>IF(H267="", "", IF(H267="-","",VLOOKUP(H267, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="268" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K268" s="1" t="str">
         <f>IF(H268="", "", IF(H268="-","",VLOOKUP(H268, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="269" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K269" s="1" t="str">
         <f>IF(H269="", "", IF(H269="-","",VLOOKUP(H269, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="270" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K270" s="1" t="str">
         <f>IF(H270="", "", IF(H270="-","",VLOOKUP(H270, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="271" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K271" s="1" t="str">
         <f>IF(H271="", "", IF(H271="-","",VLOOKUP(H271, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="272" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K272" s="1" t="str">
         <f>IF(H272="", "", IF(H272="-","",VLOOKUP(H272, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
@@ -22438,7 +22444,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" showInputMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
           <x14:formula1>
             <xm:f>Мойки!$A$1:$A$3</xm:f>
           </x14:formula1>
@@ -22447,7 +22453,7 @@
           </x14:formula2>
           <xm:sqref>L1:L107</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
           <x14:formula1>
             <xm:f>'Типы варок'!$A$1:$A$102</xm:f>
           </x14:formula1>
@@ -22456,7 +22462,7 @@
           </x14:formula2>
           <xm:sqref>B2:B107</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" xr:uid="{00000000-0002-0000-0300-000002000000}">
           <x14:formula1>
             <xm:f>'Форм фактор плавления'!$A$1:$A$25</xm:f>
           </x14:formula1>
@@ -22465,7 +22471,7 @@
           </x14:formula2>
           <xm:sqref>E2:F107</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000003000000}">
           <x14:formula1>
             <xm:f>'Соль SKU'!$A$1:$A$137</xm:f>
           </x14:formula1>
@@ -22481,29 +22487,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMK3"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1025" width="8.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>340</v>
       </c>
@@ -22515,20 +22521,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:AMK2"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.453125" style="1" customWidth="1"/>
-    <col min="2" max="1025" width="9.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
+    <col min="2" max="1025" width="9.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
         <v>121</v>
       </c>
@@ -22547,16 +22553,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AMK1"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="9.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1025" width="9.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -22569,129 +22575,129 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AMK23"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1025" width="8.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="35" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="35" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="35" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="35" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="35" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="35" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="35" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="35" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="35" t="s">
         <v>345</v>
       </c>
@@ -22703,20 +22709,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AMK29"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.6328125" style="1" customWidth="1"/>
-    <col min="2" max="1025" width="8.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" style="1" customWidth="1"/>
+    <col min="2" max="1025" width="8.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
         <v>325</v>
       </c>
@@ -22727,7 +22733,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
         <v>46</v>
       </c>
@@ -22738,7 +22744,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
         <v>32</v>
       </c>
@@ -22749,7 +22755,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
         <v>347</v>
       </c>
@@ -22760,7 +22766,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>35</v>
       </c>
@@ -22771,7 +22777,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
         <v>43</v>
       </c>
@@ -22782,7 +22788,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
         <v>39</v>
       </c>
@@ -22793,7 +22799,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
         <v>40</v>
       </c>
@@ -22804,7 +22810,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
         <v>36</v>
       </c>
@@ -22815,7 +22821,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>41</v>
       </c>
@@ -22826,7 +22832,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
         <v>45</v>
       </c>
@@ -22837,7 +22843,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
         <v>37</v>
       </c>
@@ -22848,7 +22854,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
         <v>34</v>
       </c>
@@ -22859,7 +22865,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
         <v>44</v>
       </c>
@@ -22870,7 +22876,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="35" t="s">
         <v>42</v>
       </c>
@@ -22881,7 +22887,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="35" t="s">
         <v>33</v>
       </c>
@@ -22892,7 +22898,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="35" t="s">
         <v>38</v>
       </c>
@@ -22903,7 +22909,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="35" t="s">
         <v>21</v>
       </c>
@@ -22914,7 +22920,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="35" t="s">
         <v>348</v>
       </c>
@@ -22925,7 +22931,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="35" t="s">
         <v>24</v>
       </c>
@@ -22936,7 +22942,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="35" t="s">
         <v>29</v>
       </c>
@@ -22947,7 +22953,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="35" t="s">
         <v>26</v>
       </c>
@@ -22958,7 +22964,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="35" t="s">
         <v>25</v>
       </c>
@@ -22969,7 +22975,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="35" t="s">
         <v>27</v>
       </c>
@@ -22980,7 +22986,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="35" t="s">
         <v>31</v>
       </c>
@@ -22991,7 +22997,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="35" t="s">
         <v>23</v>
       </c>
@@ -23002,7 +23008,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="35" t="s">
         <v>30</v>
       </c>
@@ -23013,7 +23019,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="35" t="s">
         <v>28</v>
       </c>
@@ -23024,7 +23030,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="35" t="s">
         <v>22</v>
       </c>
